--- a/document/document-plugin.xlsx
+++ b/document/document-plugin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -76,13 +76,46 @@
     <t>Tạo form contact , send mail</t>
   </si>
   <si>
-    <t>có thể quản lí các widget trong thêm , cho phép thêm, xóa, sửa các widget</t>
-  </si>
-  <si>
     <t>hổ trợ sesting host mail khi gửi mail</t>
   </si>
   <si>
     <t>Name Plugin</t>
+  </si>
+  <si>
+    <t>Link download</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/polylang/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/wp-google-maps/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/custom-post-type-ui/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/really-simple-captcha/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/smart-slider-3/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/tabby-responsive-tabs/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/bj-lazy-load/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/contact-form-7/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/wp-custom-widget-area/</t>
+  </si>
+  <si>
+    <t>https://vi.wordpress.org/plugins/wp-mail-smtp/</t>
+  </si>
+  <si>
+    <t>có thể quản lí các widget trong themes , cho phép thêm, xóa, sửa các widget</t>
   </si>
 </sst>
 </file>
@@ -170,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -192,6 +225,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +536,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +544,8 @@
     <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -513,12 +553,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -536,7 +578,9 @@
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -554,7 +598,9 @@
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -572,7 +618,9 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -588,7 +636,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -606,7 +656,9 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -624,7 +676,9 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -642,7 +696,9 @@
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -660,7 +716,9 @@
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -676,9 +734,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -694,9 +754,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -708,7 +770,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -720,7 +782,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -732,7 +794,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -744,7 +806,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -756,7 +818,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -768,7 +830,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -780,7 +842,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -792,7 +854,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -804,7 +866,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -816,7 +878,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -828,7 +890,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -840,7 +902,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
